--- a/Jogos_do_Dia/2023-07-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="146">
   <si>
     <t>League</t>
   </si>
@@ -139,45 +139,48 @@
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
+    <t>Sweden Superettan</t>
+  </si>
+  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
-    <t>Sweden Superettan</t>
-  </si>
-  <si>
     <t>Serbia SuperLiga</t>
   </si>
   <si>
     <t>Hungary NB I</t>
   </si>
   <si>
+    <t>Peru Primera División</t>
+  </si>
+  <si>
     <t>Argentina Prim B Nacional</t>
   </si>
   <si>
-    <t>Peru Primera División</t>
-  </si>
-  <si>
     <t>Bulgaria First League</t>
   </si>
   <si>
+    <t>Bolivia LFPB</t>
+  </si>
+  <si>
     <t>Iceland Úrvalsdeild</t>
   </si>
   <si>
+    <t>Colombia Categoria Primera A</t>
+  </si>
+  <si>
     <t>Colombia Categoria Primera B</t>
   </si>
   <si>
-    <t>Colombia Categoria Primera A</t>
-  </si>
-  <si>
     <t>Chile Primera B</t>
   </si>
   <si>
+    <t>Brazil Serie D</t>
+  </si>
+  <si>
     <t>Brazil Serie C</t>
   </si>
   <si>
-    <t>Brazil Serie D</t>
-  </si>
-  <si>
     <t>00:05:00</t>
   </si>
   <si>
@@ -208,6 +211,9 @@
     <t>15:30:00</t>
   </si>
   <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
     <t>16:15:00</t>
   </si>
   <si>
@@ -229,7 +235,19 @@
     <t>20:30:00</t>
   </si>
   <si>
-    <t>21:00:00</t>
+    <t>21:10:00</t>
+  </si>
+  <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>22:05:00</t>
+  </si>
+  <si>
+    <t>22:20:00</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
   </si>
   <si>
     <t>Dorados</t>
@@ -253,60 +271,63 @@
     <t>Sirius</t>
   </si>
   <si>
+    <t>Örebro</t>
+  </si>
+  <si>
+    <t>Utsikten</t>
+  </si>
+  <si>
     <t>AGF</t>
   </si>
   <si>
+    <t>Mladost Lučani</t>
+  </si>
+  <si>
     <t>Malmö FF</t>
   </si>
   <si>
-    <t>Örebro</t>
-  </si>
-  <si>
-    <t>Mladost Lučani</t>
-  </si>
-  <si>
-    <t>Utsikten</t>
-  </si>
-  <si>
     <t>Debrecen</t>
   </si>
   <si>
+    <t>Sport Boys</t>
+  </si>
+  <si>
     <t>Defensores de Belgrano</t>
   </si>
   <si>
-    <t>Sport Boys</t>
-  </si>
-  <si>
     <t>Lokomotiv Plovdiv</t>
   </si>
   <si>
     <t>Dinamo Bucureşti</t>
   </si>
   <si>
+    <t>Libertad</t>
+  </si>
+  <si>
+    <t>Keflavík</t>
+  </si>
+  <si>
     <t>KR</t>
   </si>
   <si>
-    <t>Keflavík</t>
-  </si>
-  <si>
     <t>Sport Huancayo</t>
   </si>
   <si>
+    <t>Envigado</t>
+  </si>
+  <si>
     <t>Cúcuta Deportivo</t>
   </si>
   <si>
-    <t>Envigado</t>
-  </si>
-  <si>
     <t>Univ. Concepción</t>
   </si>
   <si>
+    <t>Águia de Marabá</t>
+  </si>
+  <si>
     <t>Brusque</t>
   </si>
   <si>
-    <t>Águia de Marabá</t>
-  </si>
-  <si>
     <t>Aparecidense</t>
   </si>
   <si>
@@ -316,7 +337,19 @@
     <t>Democrata GV</t>
   </si>
   <si>
-    <t>Princesa Solimões</t>
+    <t>All Boys</t>
+  </si>
+  <si>
+    <t>La Serena</t>
+  </si>
+  <si>
+    <t>Zacatepec Siglo XXI</t>
+  </si>
+  <si>
+    <t>Junior</t>
+  </si>
+  <si>
+    <t>Universitario</t>
   </si>
   <si>
     <t>CA La Paz</t>
@@ -340,60 +373,63 @@
     <t>AIK</t>
   </si>
   <si>
+    <t>GAIS</t>
+  </si>
+  <si>
+    <t>Helsingborg</t>
+  </si>
+  <si>
     <t>Nordsjælland</t>
   </si>
   <si>
+    <t>Radnik Surdulica</t>
+  </si>
+  <si>
     <t>Värnamo</t>
   </si>
   <si>
-    <t>GAIS</t>
-  </si>
-  <si>
-    <t>Radnik Surdulica</t>
-  </si>
-  <si>
-    <t>Helsingborg</t>
-  </si>
-  <si>
     <t>Mezőkövesd-Zsóry</t>
   </si>
   <si>
+    <t>Melgar</t>
+  </si>
+  <si>
     <t>Flandria</t>
   </si>
   <si>
-    <t>Melgar</t>
-  </si>
-  <si>
     <t>Botev Vratsa</t>
   </si>
   <si>
     <t>Sepsi</t>
   </si>
   <si>
+    <t>Nacional Potosí</t>
+  </si>
+  <si>
+    <t>FH</t>
+  </si>
+  <si>
     <t>Valur</t>
   </si>
   <si>
-    <t>FH</t>
-  </si>
-  <si>
     <t>Alianza Atlético</t>
   </si>
   <si>
+    <t>Unión Magdalena</t>
+  </si>
+  <si>
     <t>Real Soacha</t>
   </si>
   <si>
-    <t>Unión Magdalena</t>
-  </si>
-  <si>
     <t>Cobreloa</t>
   </si>
   <si>
+    <t>Uniclinic</t>
+  </si>
+  <si>
     <t>São Bernardo</t>
   </si>
   <si>
-    <t>Uniclinic</t>
-  </si>
-  <si>
     <t>Floresta</t>
   </si>
   <si>
@@ -403,7 +439,19 @@
     <t>Anápolis</t>
   </si>
   <si>
-    <t>Ferroviário</t>
+    <t>Defensores Unidos</t>
+  </si>
+  <si>
+    <t>Deportes Temuco</t>
+  </si>
+  <si>
+    <t>Tapatío</t>
+  </si>
+  <si>
+    <t>Atlético Bucaramanga</t>
+  </si>
+  <si>
+    <t>Carlos Manucci</t>
   </si>
 </sst>
 </file>
@@ -765,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI30"/>
+  <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -886,16 +934,16 @@
         <v>45138</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G2">
         <v>2.63</v>
@@ -993,25 +1041,25 @@
         <v>45138</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G3">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H3">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="I3">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="J3">
         <v>1.08</v>
@@ -1026,10 +1074,10 @@
         <v>2.75</v>
       </c>
       <c r="N3">
-        <v>2.07</v>
+        <v>2.25</v>
       </c>
       <c r="O3">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P3">
         <v>1.48</v>
@@ -1089,7 +1137,7 @@
         <v>3.98</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1100,25 +1148,25 @@
         <v>45138</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G4">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
       <c r="H4">
-        <v>3.4</v>
+        <v>2.93</v>
       </c>
       <c r="I4">
-        <v>2.47</v>
+        <v>2.49</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -1133,10 +1181,10 @@
         <v>3.5</v>
       </c>
       <c r="N4">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O4">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="P4">
         <v>1.36</v>
@@ -1184,7 +1232,7 @@
         <v>2.12</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AF4">
         <v>1.5</v>
@@ -1207,25 +1255,25 @@
         <v>45138</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G5">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="H5">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I5">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="J5">
         <v>1.08</v>
@@ -1240,10 +1288,10 @@
         <v>2.48</v>
       </c>
       <c r="N5">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="O5">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="P5">
         <v>1.47</v>
@@ -1314,25 +1362,25 @@
         <v>45138</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G6">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H6">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="I6">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1347,10 +1395,10 @@
         <v>4.2</v>
       </c>
       <c r="N6">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="O6">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="P6">
         <v>1.31</v>
@@ -1421,16 +1469,16 @@
         <v>45138</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="G7">
         <v>1.62</v>
@@ -1528,25 +1576,25 @@
         <v>45138</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="G8">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="H8">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8">
-        <v>2.51</v>
+        <v>2.34</v>
       </c>
       <c r="J8">
         <v>1.05</v>
@@ -1561,10 +1609,10 @@
         <v>3</v>
       </c>
       <c r="N8">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="O8">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="P8">
         <v>1.44</v>
@@ -1635,210 +1683,210 @@
         <v>45138</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G9">
-        <v>2.4</v>
+        <v>3.67</v>
       </c>
       <c r="H9">
-        <v>3.4</v>
+        <v>3.39</v>
       </c>
       <c r="I9">
-        <v>2.71</v>
+        <v>1.78</v>
       </c>
       <c r="J9">
         <v>1.05</v>
       </c>
       <c r="K9">
-        <v>12.25</v>
+        <v>11</v>
       </c>
       <c r="L9">
+        <v>1.3</v>
+      </c>
+      <c r="M9">
+        <v>3.4</v>
+      </c>
+      <c r="N9">
+        <v>1.72</v>
+      </c>
+      <c r="O9">
+        <v>1.89</v>
+      </c>
+      <c r="P9">
+        <v>1.38</v>
+      </c>
+      <c r="Q9">
+        <v>2.85</v>
+      </c>
+      <c r="R9">
+        <v>1.78</v>
+      </c>
+      <c r="S9">
+        <v>1.95</v>
+      </c>
+      <c r="T9">
+        <v>1.85</v>
+      </c>
+      <c r="U9">
+        <v>1.25</v>
+      </c>
+      <c r="V9">
         <v>1.28</v>
       </c>
-      <c r="M9">
-        <v>3.75</v>
-      </c>
-      <c r="N9">
-        <v>2.02</v>
-      </c>
-      <c r="O9">
-        <v>1.84</v>
-      </c>
-      <c r="P9">
-        <v>1.36</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
-      </c>
-      <c r="R9">
-        <v>1.7</v>
-      </c>
-      <c r="S9">
-        <v>2.05</v>
-      </c>
-      <c r="T9">
-        <v>1.45</v>
-      </c>
-      <c r="U9">
-        <v>1.32</v>
-      </c>
-      <c r="V9">
-        <v>1.52</v>
-      </c>
       <c r="W9">
-        <v>3</v>
+        <v>1.38</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="Y9">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AA9">
-        <v>1.62</v>
+        <v>3.55</v>
       </c>
       <c r="AB9">
-        <v>1.89</v>
+        <v>2.68</v>
       </c>
       <c r="AC9">
-        <v>8.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD9">
-        <v>2.31</v>
+        <v>1.59</v>
       </c>
       <c r="AE9">
-        <v>1.46</v>
+        <v>1.13</v>
       </c>
       <c r="AF9">
-        <v>1.83</v>
+        <v>1.23</v>
       </c>
       <c r="AG9">
-        <v>2.45</v>
+        <v>1.43</v>
       </c>
       <c r="AH9">
-        <v>3.5</v>
+        <v>1.76</v>
       </c>
       <c r="AI9">
-        <v>4.15</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2">
         <v>45138</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G10">
-        <v>1.27</v>
+        <v>1.92</v>
       </c>
       <c r="H10">
-        <v>5.5</v>
+        <v>3.24</v>
       </c>
       <c r="I10">
-        <v>8.699999999999999</v>
+        <v>3.34</v>
       </c>
       <c r="J10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="K10">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="M10">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>1.48</v>
+        <v>1.74</v>
       </c>
       <c r="O10">
-        <v>2.41</v>
+        <v>1.86</v>
       </c>
       <c r="P10">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="Q10">
-        <v>3.5</v>
+        <v>2.85</v>
       </c>
       <c r="R10">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S10">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T10">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="U10">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="V10">
-        <v>3.46</v>
+        <v>1.78</v>
       </c>
       <c r="W10">
+        <v>2.57</v>
+      </c>
+      <c r="X10">
+        <v>1.14</v>
+      </c>
+      <c r="Y10">
+        <v>1.58</v>
+      </c>
+      <c r="Z10">
+        <v>1.39</v>
+      </c>
+      <c r="AA10">
+        <v>2.97</v>
+      </c>
+      <c r="AB10">
+        <v>1.74</v>
+      </c>
+      <c r="AC10">
+        <v>9.1</v>
+      </c>
+      <c r="AD10">
         <v>2.38</v>
       </c>
-      <c r="X10">
-        <v>1.25</v>
-      </c>
-      <c r="Y10">
-        <v>2.16</v>
-      </c>
-      <c r="Z10">
-        <v>1.59</v>
-      </c>
-      <c r="AA10">
-        <v>3.75</v>
-      </c>
-      <c r="AB10">
-        <v>1.19</v>
-      </c>
-      <c r="AC10">
-        <v>13.7</v>
-      </c>
-      <c r="AD10">
-        <v>5.89</v>
-      </c>
       <c r="AE10">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="AF10">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AG10">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="AH10">
-        <v>1.75</v>
+        <v>2.03</v>
       </c>
       <c r="AI10">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1849,103 +1897,103 @@
         <v>45138</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G11">
-        <v>3.85</v>
+        <v>2.26</v>
       </c>
       <c r="H11">
-        <v>3.55</v>
+        <v>3.19</v>
       </c>
       <c r="I11">
-        <v>1.83</v>
+        <v>2.67</v>
       </c>
       <c r="J11">
         <v>1.05</v>
       </c>
       <c r="K11">
-        <v>11</v>
+        <v>12.25</v>
       </c>
       <c r="L11">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M11">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N11">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="O11">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="P11">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="Q11">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T11">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="U11">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="V11">
-        <v>1.28</v>
+        <v>1.52</v>
       </c>
       <c r="W11">
-        <v>1.38</v>
+        <v>3</v>
       </c>
       <c r="X11">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Z11">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>3.55</v>
+        <v>1.62</v>
       </c>
       <c r="AB11">
-        <v>2.68</v>
+        <v>1.89</v>
       </c>
       <c r="AC11">
-        <v>9.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AD11">
-        <v>1.59</v>
+        <v>2.31</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF11">
-        <v>1.23</v>
+        <v>1.83</v>
       </c>
       <c r="AG11">
-        <v>1.43</v>
+        <v>2.45</v>
       </c>
       <c r="AH11">
-        <v>1.76</v>
+        <v>3.5</v>
       </c>
       <c r="AI11">
-        <v>2.16</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1956,25 +2004,25 @@
         <v>45138</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="H12">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="I12">
-        <v>3.25</v>
+        <v>3.37</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1989,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="O12">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2057,109 +2105,109 @@
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
         <v>45138</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G13">
-        <v>1.98</v>
+        <v>1.27</v>
       </c>
       <c r="H13">
-        <v>3.4</v>
+        <v>4.82</v>
       </c>
       <c r="I13">
+        <v>7.5</v>
+      </c>
+      <c r="J13">
+        <v>1.02</v>
+      </c>
+      <c r="K13">
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <v>1.16</v>
+      </c>
+      <c r="M13">
+        <v>4.4</v>
+      </c>
+      <c r="N13">
+        <v>1.55</v>
+      </c>
+      <c r="O13">
+        <v>2.29</v>
+      </c>
+      <c r="P13">
+        <v>1.29</v>
+      </c>
+      <c r="Q13">
         <v>3.5</v>
       </c>
-      <c r="J13">
-        <v>1.05</v>
-      </c>
-      <c r="K13">
-        <v>11</v>
-      </c>
-      <c r="L13">
-        <v>1.3</v>
-      </c>
-      <c r="M13">
-        <v>3.5</v>
-      </c>
-      <c r="N13">
-        <v>1.85</v>
-      </c>
-      <c r="O13">
+      <c r="R13">
         <v>1.95</v>
       </c>
-      <c r="P13">
-        <v>1.37</v>
-      </c>
-      <c r="Q13">
-        <v>2.85</v>
-      </c>
-      <c r="R13">
+      <c r="S13">
+        <v>1.8</v>
+      </c>
+      <c r="T13">
+        <v>1.06</v>
+      </c>
+      <c r="U13">
+        <v>1.15</v>
+      </c>
+      <c r="V13">
+        <v>3.46</v>
+      </c>
+      <c r="W13">
+        <v>2.38</v>
+      </c>
+      <c r="X13">
+        <v>1.25</v>
+      </c>
+      <c r="Y13">
+        <v>2.16</v>
+      </c>
+      <c r="Z13">
+        <v>1.59</v>
+      </c>
+      <c r="AA13">
+        <v>3.75</v>
+      </c>
+      <c r="AB13">
+        <v>1.19</v>
+      </c>
+      <c r="AC13">
+        <v>13.7</v>
+      </c>
+      <c r="AD13">
+        <v>5.89</v>
+      </c>
+      <c r="AE13">
+        <v>1.07</v>
+      </c>
+      <c r="AF13">
+        <v>1.24</v>
+      </c>
+      <c r="AG13">
+        <v>1.44</v>
+      </c>
+      <c r="AH13">
         <v>1.75</v>
       </c>
-      <c r="S13">
-        <v>2.05</v>
-      </c>
-      <c r="T13">
-        <v>1.3</v>
-      </c>
-      <c r="U13">
-        <v>1.25</v>
-      </c>
-      <c r="V13">
-        <v>1.78</v>
-      </c>
-      <c r="W13">
-        <v>2.57</v>
-      </c>
-      <c r="X13">
-        <v>1.14</v>
-      </c>
-      <c r="Y13">
-        <v>1.58</v>
-      </c>
-      <c r="Z13">
-        <v>1.39</v>
-      </c>
-      <c r="AA13">
-        <v>2.97</v>
-      </c>
-      <c r="AB13">
-        <v>1.74</v>
-      </c>
-      <c r="AC13">
-        <v>9.1</v>
-      </c>
-      <c r="AD13">
-        <v>2.38</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>1.33</v>
-      </c>
-      <c r="AG13">
-        <v>1.67</v>
-      </c>
-      <c r="AH13">
-        <v>2.03</v>
-      </c>
       <c r="AI13">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2170,25 +2218,25 @@
         <v>45138</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G14">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="H14">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I14">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J14">
         <v>1.05</v>
@@ -2203,10 +2251,10 @@
         <v>3.75</v>
       </c>
       <c r="N14">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O14">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P14">
         <v>1.33</v>
@@ -2277,103 +2325,103 @@
         <v>45138</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G15">
-        <v>1.65</v>
+        <v>3.32</v>
       </c>
       <c r="H15">
-        <v>3.1</v>
+        <v>3.16</v>
       </c>
       <c r="I15">
-        <v>5.25</v>
+        <v>1.84</v>
       </c>
       <c r="J15">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L15">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="M15">
-        <v>2.45</v>
+        <v>3.3</v>
       </c>
       <c r="N15">
-        <v>2.45</v>
+        <v>1.98</v>
       </c>
       <c r="O15">
-        <v>1.43</v>
+        <v>1.88</v>
       </c>
       <c r="P15">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="Q15">
-        <v>2.38</v>
+        <v>2.9</v>
       </c>
       <c r="R15">
-        <v>2.35</v>
+        <v>1.83</v>
       </c>
       <c r="S15">
-        <v>1.55</v>
+        <v>1.93</v>
       </c>
       <c r="T15">
-        <v>1.12</v>
+        <v>1.71</v>
       </c>
       <c r="U15">
+        <v>1.29</v>
+      </c>
+      <c r="V15">
         <v>1.25</v>
       </c>
-      <c r="V15">
+      <c r="W15">
+        <v>1.45</v>
+      </c>
+      <c r="X15">
+        <v>1.09</v>
+      </c>
+      <c r="Y15">
+        <v>1.42</v>
+      </c>
+      <c r="Z15">
+        <v>1.41</v>
+      </c>
+      <c r="AA15">
+        <v>2.83</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
         <v>2</v>
       </c>
-      <c r="W15">
-        <v>1.75</v>
-      </c>
-      <c r="X15">
-        <v>0.42</v>
-      </c>
-      <c r="Y15">
-        <v>1.28</v>
-      </c>
-      <c r="Z15">
-        <v>1.07</v>
-      </c>
-      <c r="AA15">
-        <v>2.35</v>
-      </c>
-      <c r="AB15">
-        <v>1.5</v>
-      </c>
-      <c r="AC15">
-        <v>9.1</v>
-      </c>
-      <c r="AD15">
-        <v>3.24</v>
-      </c>
-      <c r="AE15">
-        <v>1.35</v>
-      </c>
-      <c r="AF15">
-        <v>1.71</v>
-      </c>
-      <c r="AG15">
-        <v>2.13</v>
-      </c>
       <c r="AH15">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>3.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2384,103 +2432,103 @@
         <v>45138</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G16">
+        <v>1.69</v>
+      </c>
+      <c r="H16">
+        <v>3.27</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>1.1</v>
+      </c>
+      <c r="K16">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16">
-        <v>3.7</v>
-      </c>
-      <c r="H16">
-        <v>3.5</v>
-      </c>
-      <c r="I16">
-        <v>1.95</v>
-      </c>
-      <c r="J16">
-        <v>1.05</v>
-      </c>
-      <c r="K16">
-        <v>11</v>
-      </c>
       <c r="L16">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="M16">
-        <v>3.3</v>
+        <v>2.41</v>
       </c>
       <c r="N16">
-        <v>1.97</v>
+        <v>2.55</v>
       </c>
       <c r="O16">
-        <v>1.77</v>
+        <v>1.45</v>
       </c>
       <c r="P16">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="Q16">
-        <v>2.9</v>
+        <v>2.38</v>
       </c>
       <c r="R16">
-        <v>1.83</v>
+        <v>2.35</v>
       </c>
       <c r="S16">
-        <v>1.93</v>
+        <v>1.55</v>
       </c>
       <c r="T16">
+        <v>1.12</v>
+      </c>
+      <c r="U16">
+        <v>1.25</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>1.75</v>
+      </c>
+      <c r="X16">
+        <v>0.42</v>
+      </c>
+      <c r="Y16">
+        <v>1.28</v>
+      </c>
+      <c r="Z16">
+        <v>1.07</v>
+      </c>
+      <c r="AA16">
+        <v>2.35</v>
+      </c>
+      <c r="AB16">
+        <v>1.5</v>
+      </c>
+      <c r="AC16">
+        <v>9.1</v>
+      </c>
+      <c r="AD16">
+        <v>3.24</v>
+      </c>
+      <c r="AE16">
+        <v>1.35</v>
+      </c>
+      <c r="AF16">
         <v>1.71</v>
       </c>
-      <c r="U16">
-        <v>1.29</v>
-      </c>
-      <c r="V16">
-        <v>1.25</v>
-      </c>
-      <c r="W16">
-        <v>1.45</v>
-      </c>
-      <c r="X16">
-        <v>1.09</v>
-      </c>
-      <c r="Y16">
-        <v>1.42</v>
-      </c>
-      <c r="Z16">
-        <v>1.41</v>
-      </c>
-      <c r="AA16">
-        <v>2.83</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
       <c r="AG16">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2491,25 +2539,25 @@
         <v>45138</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G17">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="H17">
-        <v>3.65</v>
+        <v>4.21</v>
       </c>
       <c r="I17">
-        <v>8.199999999999999</v>
+        <v>7.42</v>
       </c>
       <c r="J17">
         <v>1.02</v>
@@ -2524,10 +2572,10 @@
         <v>3.14</v>
       </c>
       <c r="N17">
-        <v>2.19</v>
+        <v>1.94</v>
       </c>
       <c r="O17">
-        <v>1.51</v>
+        <v>1.8</v>
       </c>
       <c r="P17">
         <v>1.4</v>
@@ -2587,7 +2635,7 @@
         <v>2.79</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2598,25 +2646,25 @@
         <v>45138</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G18">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H18">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="I18">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <v>1.08</v>
@@ -2631,10 +2679,10 @@
         <v>2.75</v>
       </c>
       <c r="N18">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="O18">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P18">
         <v>1.5</v>
@@ -2705,132 +2753,132 @@
         <v>45138</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G19">
-        <v>2.67</v>
+        <v>2.83</v>
       </c>
       <c r="H19">
-        <v>3.7</v>
+        <v>3.31</v>
       </c>
       <c r="I19">
-        <v>2.31</v>
+        <v>2.06</v>
       </c>
       <c r="J19">
         <v>1.03</v>
       </c>
       <c r="K19">
-        <v>11</v>
+        <v>15.25</v>
       </c>
       <c r="L19">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="M19">
-        <v>4.75</v>
+        <v>4.45</v>
       </c>
       <c r="N19">
-        <v>1.47</v>
+        <v>1.61</v>
       </c>
       <c r="O19">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="P19">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="Q19">
-        <v>3.56</v>
+        <v>3.25</v>
       </c>
       <c r="R19">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S19">
-        <v>2.64</v>
+        <v>2.51</v>
       </c>
       <c r="T19">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="U19">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V19">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W19">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X19">
-        <v>2.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y19">
-        <v>1.48</v>
+        <v>1.76</v>
       </c>
       <c r="Z19">
-        <v>1.58</v>
+        <v>1.22</v>
       </c>
       <c r="AA19">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="AB19">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="AC19">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AD19">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF19">
-        <v>1.1</v>
+        <v>1.67</v>
       </c>
       <c r="AG19">
-        <v>1.22</v>
+        <v>2.13</v>
       </c>
       <c r="AH19">
-        <v>1.42</v>
+        <v>2.9</v>
       </c>
       <c r="AI19">
-        <v>1.88</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2">
         <v>45138</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D20">
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G20">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="H20">
-        <v>3.75</v>
+        <v>3.43</v>
       </c>
       <c r="I20">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="J20">
         <v>1.04</v>
@@ -2845,10 +2893,10 @@
         <v>4</v>
       </c>
       <c r="N20">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="O20">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="P20">
         <v>1.33</v>
@@ -2896,7 +2944,7 @@
         <v>1.64</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF20">
         <v>1.19</v>
@@ -2913,216 +2961,216 @@
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2">
         <v>45138</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="G21">
+        <v>2.78</v>
+      </c>
+      <c r="H21">
+        <v>3.56</v>
+      </c>
+      <c r="I21">
+        <v>2.31</v>
+      </c>
+      <c r="J21">
+        <v>1.03</v>
+      </c>
+      <c r="K21">
+        <v>11</v>
+      </c>
+      <c r="L21">
+        <v>1.15</v>
+      </c>
+      <c r="M21">
+        <v>4.75</v>
+      </c>
+      <c r="N21">
+        <v>1.52</v>
+      </c>
+      <c r="O21">
+        <v>2.45</v>
+      </c>
+      <c r="P21">
+        <v>1.27</v>
+      </c>
+      <c r="Q21">
+        <v>3.56</v>
+      </c>
+      <c r="R21">
+        <v>1.47</v>
+      </c>
+      <c r="S21">
+        <v>2.64</v>
+      </c>
+      <c r="T21">
+        <v>1.5</v>
+      </c>
+      <c r="U21">
+        <v>1.25</v>
+      </c>
+      <c r="V21">
         <v>1.35</v>
       </c>
-      <c r="H21">
-        <v>4.5</v>
-      </c>
-      <c r="I21">
-        <v>8.5</v>
-      </c>
-      <c r="J21">
-        <v>1.02</v>
-      </c>
-      <c r="K21">
-        <v>15</v>
-      </c>
-      <c r="L21">
+      <c r="W21">
+        <v>1.63</v>
+      </c>
+      <c r="X21">
+        <v>2.25</v>
+      </c>
+      <c r="Y21">
+        <v>1.48</v>
+      </c>
+      <c r="Z21">
+        <v>1.58</v>
+      </c>
+      <c r="AA21">
+        <v>3.06</v>
+      </c>
+      <c r="AB21">
+        <v>1.83</v>
+      </c>
+      <c r="AC21">
+        <v>9</v>
+      </c>
+      <c r="AD21">
+        <v>2.2</v>
+      </c>
+      <c r="AE21">
+        <v>1.06</v>
+      </c>
+      <c r="AF21">
+        <v>1.1</v>
+      </c>
+      <c r="AG21">
         <v>1.22</v>
       </c>
-      <c r="M21">
-        <v>4.2</v>
-      </c>
-      <c r="N21">
-        <v>1.71</v>
-      </c>
-      <c r="O21">
-        <v>2.04</v>
-      </c>
-      <c r="P21">
-        <v>1.33</v>
-      </c>
-      <c r="Q21">
-        <v>3.3</v>
-      </c>
-      <c r="R21">
-        <v>2</v>
-      </c>
-      <c r="S21">
-        <v>1.78</v>
-      </c>
-      <c r="T21">
-        <v>1.05</v>
-      </c>
-      <c r="U21">
-        <v>1.15</v>
-      </c>
-      <c r="V21">
-        <v>3</v>
-      </c>
-      <c r="W21">
-        <v>2</v>
-      </c>
-      <c r="X21">
-        <v>0.55</v>
-      </c>
-      <c r="Y21">
-        <v>1.98</v>
-      </c>
-      <c r="Z21">
-        <v>1.32</v>
-      </c>
-      <c r="AA21">
-        <v>3.3</v>
-      </c>
-      <c r="AB21">
-        <v>1.14</v>
-      </c>
-      <c r="AC21">
-        <v>12</v>
-      </c>
-      <c r="AD21">
-        <v>6.5</v>
-      </c>
-      <c r="AE21">
-        <v>1.18</v>
-      </c>
-      <c r="AF21">
-        <v>1.29</v>
-      </c>
-      <c r="AG21">
-        <v>1.55</v>
-      </c>
       <c r="AH21">
-        <v>1.94</v>
+        <v>1.42</v>
       </c>
       <c r="AI21">
-        <v>2.47</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2">
         <v>45138</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22">
+        <v>1.3</v>
+      </c>
+      <c r="H22">
+        <v>3.94</v>
+      </c>
+      <c r="I22">
+        <v>7.35</v>
+      </c>
+      <c r="J22">
+        <v>1.02</v>
+      </c>
+      <c r="K22">
+        <v>15</v>
+      </c>
+      <c r="L22">
+        <v>1.22</v>
+      </c>
+      <c r="M22">
+        <v>4.2</v>
+      </c>
+      <c r="N22">
+        <v>1.61</v>
+      </c>
+      <c r="O22">
+        <v>2.18</v>
+      </c>
+      <c r="P22">
+        <v>1.33</v>
+      </c>
+      <c r="Q22">
+        <v>3.3</v>
+      </c>
+      <c r="R22">
         <v>2</v>
       </c>
-      <c r="E22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22">
-        <v>1.45</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-      <c r="I22">
+      <c r="S22">
+        <v>1.78</v>
+      </c>
+      <c r="T22">
+        <v>1.05</v>
+      </c>
+      <c r="U22">
+        <v>1.15</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>0.55</v>
+      </c>
+      <c r="Y22">
+        <v>1.98</v>
+      </c>
+      <c r="Z22">
+        <v>1.32</v>
+      </c>
+      <c r="AA22">
+        <v>3.3</v>
+      </c>
+      <c r="AB22">
+        <v>1.14</v>
+      </c>
+      <c r="AC22">
+        <v>12</v>
+      </c>
+      <c r="AD22">
         <v>6.5</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>1.77</v>
-      </c>
-      <c r="O22">
-        <v>1.87</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>2.09</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>1.58</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>1.58</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3133,25 +3181,25 @@
         <v>45138</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G23">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="H23">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="I23">
-        <v>3.2</v>
+        <v>3.53</v>
       </c>
       <c r="J23">
         <v>1.09</v>
@@ -3166,10 +3214,10 @@
         <v>2.75</v>
       </c>
       <c r="N23">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="O23">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="P23">
         <v>1.48</v>
@@ -3240,79 +3288,79 @@
         <v>45138</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="G24">
-        <v>2.28</v>
+        <v>1.38</v>
       </c>
       <c r="H24">
-        <v>2.8</v>
+        <v>3.49</v>
       </c>
       <c r="I24">
-        <v>2.75</v>
+        <v>5.53</v>
       </c>
       <c r="J24">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>2.87</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="O24">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="P24">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1.4</v>
+        <v>2.09</v>
       </c>
       <c r="X24">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>1.76</v>
+        <v>1.58</v>
       </c>
       <c r="Z24">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>3.46</v>
+        <v>1.58</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -3347,79 +3395,79 @@
         <v>45138</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="G25">
-        <v>1.83</v>
+        <v>2.28</v>
       </c>
       <c r="H25">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="I25">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="J25">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K25">
-        <v>7.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L25">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="M25">
-        <v>2.35</v>
+        <v>2.87</v>
       </c>
       <c r="N25">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="O25">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="P25">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="Q25">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="R25">
-        <v>2.12</v>
+        <v>1.82</v>
       </c>
       <c r="S25">
-        <v>1.69</v>
+        <v>1.88</v>
       </c>
       <c r="T25">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="U25">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="V25">
-        <v>1.99</v>
+        <v>1.45</v>
       </c>
       <c r="W25">
-        <v>1.86</v>
+        <v>1.4</v>
       </c>
       <c r="X25">
-        <v>1.29</v>
+        <v>0.78</v>
       </c>
       <c r="Y25">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="Z25">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AA25">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="AB25">
         <v>0</v>
@@ -3454,25 +3502,25 @@
         <v>45138</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F26" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G26">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="H26">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="I26">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3499,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W26">
         <v>1.71</v>
@@ -3555,85 +3603,85 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2">
         <v>45138</v>
       </c>
       <c r="C27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D27">
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="G27">
-        <v>1.97</v>
+        <v>1.54</v>
       </c>
       <c r="H27">
-        <v>3.05</v>
+        <v>3.09</v>
       </c>
       <c r="I27">
-        <v>3.6</v>
+        <v>5.37</v>
       </c>
       <c r="J27">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K27">
-        <v>7.75</v>
+        <v>7.1</v>
       </c>
       <c r="L27">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M27">
-        <v>2.58</v>
+        <v>2.3</v>
       </c>
       <c r="N27">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O27">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="P27">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Q27">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R27">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S27">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="T27">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="U27">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V27">
+        <v>1.99</v>
+      </c>
+      <c r="W27">
+        <v>1.86</v>
+      </c>
+      <c r="X27">
+        <v>1.29</v>
+      </c>
+      <c r="Y27">
         <v>1.72</v>
       </c>
-      <c r="W27">
-        <v>1.29</v>
-      </c>
-      <c r="X27">
-        <v>0.71</v>
-      </c>
-      <c r="Y27">
-        <v>1.6</v>
-      </c>
       <c r="Z27">
-        <v>1.39</v>
+        <v>1.69</v>
       </c>
       <c r="AA27">
-        <v>2.99</v>
+        <v>3.41</v>
       </c>
       <c r="AB27">
         <v>0</v>
@@ -3662,216 +3710,216 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2">
         <v>45138</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="G28">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="H28">
-        <v>3.15</v>
+        <v>2.87</v>
       </c>
       <c r="I28">
-        <v>3.3</v>
+        <v>3.19</v>
       </c>
       <c r="J28">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K28">
-        <v>7</v>
+        <v>7.75</v>
       </c>
       <c r="L28">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M28">
-        <v>2.7</v>
+        <v>2.58</v>
       </c>
       <c r="N28">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="O28">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="P28">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q28">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="R28">
         <v>2.1</v>
       </c>
       <c r="S28">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="T28">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="U28">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="V28">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="W28">
-        <v>2.23</v>
+        <v>1.29</v>
       </c>
       <c r="X28">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="Y28">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Z28">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AA28">
-        <v>2.75</v>
+        <v>2.99</v>
       </c>
       <c r="AB28">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD28">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="AE28">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>1.53</v>
       </c>
       <c r="AG28">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AH28">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AI28">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2">
         <v>45138</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F29" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G29">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="H29">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="I29">
-        <v>4.87</v>
+        <v>3.39</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W29">
-        <v>1.79</v>
+        <v>2.23</v>
       </c>
       <c r="X29">
-        <v>1.79</v>
+        <v>0.73</v>
       </c>
       <c r="Y29">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="Z29">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AA29">
-        <v>3.02</v>
+        <v>2.75</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -3882,103 +3930,638 @@
         <v>45138</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G30">
-        <v>2.82</v>
+        <v>1.7</v>
       </c>
       <c r="H30">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="I30">
-        <v>2.23</v>
+        <v>4.48</v>
       </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>2.3</v>
+      </c>
+      <c r="O30">
+        <v>1.55</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>1.79</v>
+      </c>
+      <c r="X30">
+        <v>1.79</v>
+      </c>
+      <c r="Y30">
+        <v>1.69</v>
+      </c>
+      <c r="Z30">
+        <v>1.33</v>
+      </c>
+      <c r="AA30">
+        <v>3.02</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31">
+        <v>27</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31">
+        <v>2.26</v>
+      </c>
+      <c r="H31">
+        <v>2.72</v>
+      </c>
+      <c r="I31">
+        <v>2.85</v>
+      </c>
+      <c r="J31">
+        <v>1.12</v>
+      </c>
+      <c r="K31">
+        <v>6.2</v>
+      </c>
+      <c r="L31">
+        <v>1.59</v>
+      </c>
+      <c r="M31">
+        <v>2.21</v>
+      </c>
+      <c r="N31">
+        <v>2.9</v>
+      </c>
+      <c r="O31">
+        <v>1.36</v>
+      </c>
+      <c r="P31">
+        <v>1.67</v>
+      </c>
+      <c r="Q31">
+        <v>2.1</v>
+      </c>
+      <c r="R31">
+        <v>2.38</v>
+      </c>
+      <c r="S31">
+        <v>1.53</v>
+      </c>
+      <c r="T31">
+        <v>1.3</v>
+      </c>
+      <c r="U31">
+        <v>1.32</v>
+      </c>
+      <c r="V31">
+        <v>1.58</v>
+      </c>
+      <c r="W31">
+        <v>1.42</v>
+      </c>
+      <c r="X31">
+        <v>0.83</v>
+      </c>
+      <c r="Y31">
+        <v>1.25</v>
+      </c>
+      <c r="Z31">
+        <v>1.04</v>
+      </c>
+      <c r="AA31">
+        <v>2.29</v>
+      </c>
+      <c r="AB31">
+        <v>1.76</v>
+      </c>
+      <c r="AC31">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD31">
+        <v>2.47</v>
+      </c>
+      <c r="AE31">
+        <v>1.51</v>
+      </c>
+      <c r="AF31">
+        <v>1.88</v>
+      </c>
+      <c r="AG31">
+        <v>2.38</v>
+      </c>
+      <c r="AH31">
+        <v>3.28</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32">
+        <v>1.92</v>
+      </c>
+      <c r="H32">
+        <v>2.8</v>
+      </c>
+      <c r="I32">
+        <v>3.55</v>
+      </c>
+      <c r="J32">
+        <v>1.06</v>
+      </c>
+      <c r="K32">
+        <v>9.5</v>
+      </c>
+      <c r="L32">
+        <v>1.32</v>
+      </c>
+      <c r="M32">
+        <v>2.92</v>
+      </c>
+      <c r="N32">
+        <v>2.05</v>
+      </c>
+      <c r="O32">
+        <v>1.69</v>
+      </c>
+      <c r="P32">
+        <v>1.45</v>
+      </c>
+      <c r="Q32">
+        <v>2.55</v>
+      </c>
+      <c r="R32">
+        <v>1.88</v>
+      </c>
+      <c r="S32">
+        <v>1.82</v>
+      </c>
+      <c r="T32">
+        <v>1.24</v>
+      </c>
+      <c r="U32">
+        <v>1.28</v>
+      </c>
+      <c r="V32">
+        <v>1.65</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>1.11</v>
+      </c>
+      <c r="Y32">
+        <v>1.77</v>
+      </c>
+      <c r="Z32">
+        <v>1.31</v>
+      </c>
+      <c r="AA32">
+        <v>3.08</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34">
+        <v>1.79</v>
+      </c>
+      <c r="H34">
+        <v>3.31</v>
+      </c>
+      <c r="I34">
+        <v>3.71</v>
+      </c>
+      <c r="J34">
+        <v>1.06</v>
+      </c>
+      <c r="K34">
+        <v>7.2</v>
+      </c>
+      <c r="L34">
+        <v>1.3</v>
+      </c>
+      <c r="M34">
+        <v>3.2</v>
+      </c>
+      <c r="N34">
+        <v>2.03</v>
+      </c>
+      <c r="O34">
+        <v>1.73</v>
+      </c>
+      <c r="P34">
+        <v>1.44</v>
+      </c>
+      <c r="Q34">
+        <v>2.63</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>1.73</v>
+      </c>
+      <c r="T34">
+        <v>1.15</v>
+      </c>
+      <c r="U34">
+        <v>1.28</v>
+      </c>
+      <c r="V34">
+        <v>1.8</v>
+      </c>
+      <c r="W34">
+        <v>1.55</v>
+      </c>
+      <c r="X34">
+        <v>0.91</v>
+      </c>
+      <c r="Y34">
+        <v>1.64</v>
+      </c>
+      <c r="Z34">
+        <v>1.26</v>
+      </c>
+      <c r="AA34">
+        <v>2.9</v>
+      </c>
+      <c r="AB34">
+        <v>1.41</v>
+      </c>
+      <c r="AC34">
+        <v>9</v>
+      </c>
+      <c r="AD34">
+        <v>3.58</v>
+      </c>
+      <c r="AE34">
+        <v>1.27</v>
+      </c>
+      <c r="AF34">
+        <v>1.5</v>
+      </c>
+      <c r="AG34">
+        <v>2</v>
+      </c>
+      <c r="AH34">
+        <v>2.5</v>
+      </c>
+      <c r="AI34">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G35">
+        <v>1.3</v>
+      </c>
+      <c r="H35">
+        <v>3.96</v>
+      </c>
+      <c r="I35">
+        <v>7.36</v>
+      </c>
+      <c r="J35">
         <v>1.02</v>
       </c>
-      <c r="K30">
-        <v>8</v>
-      </c>
-      <c r="L30">
-        <v>1.34</v>
-      </c>
-      <c r="M30">
-        <v>2.95</v>
-      </c>
-      <c r="N30">
-        <v>2.01</v>
-      </c>
-      <c r="O30">
-        <v>1.66</v>
-      </c>
-      <c r="P30">
-        <v>1.43</v>
-      </c>
-      <c r="Q30">
-        <v>2.55</v>
-      </c>
-      <c r="R30">
-        <v>1.82</v>
-      </c>
-      <c r="S30">
-        <v>1.94</v>
-      </c>
-      <c r="T30">
-        <v>1.47</v>
-      </c>
-      <c r="U30">
-        <v>1.38</v>
-      </c>
-      <c r="V30">
+      <c r="K35">
+        <v>15</v>
+      </c>
+      <c r="L35">
+        <v>1.2</v>
+      </c>
+      <c r="M35">
+        <v>4.33</v>
+      </c>
+      <c r="N35">
+        <v>1.65</v>
+      </c>
+      <c r="O35">
+        <v>2.1</v>
+      </c>
+      <c r="P35">
+        <v>1.3</v>
+      </c>
+      <c r="Q35">
+        <v>3.4</v>
+      </c>
+      <c r="R35">
+        <v>2.25</v>
+      </c>
+      <c r="S35">
+        <v>1.62</v>
+      </c>
+      <c r="T35">
+        <v>1.02</v>
+      </c>
+      <c r="U35">
+        <v>1.1</v>
+      </c>
+      <c r="V35">
+        <v>4</v>
+      </c>
+      <c r="W35">
+        <v>2.73</v>
+      </c>
+      <c r="X35">
         <v>1.36</v>
       </c>
-      <c r="W30">
-        <v>1.36</v>
-      </c>
-      <c r="X30">
-        <v>2.57</v>
-      </c>
-      <c r="Y30">
-        <v>1.72</v>
-      </c>
-      <c r="Z30">
-        <v>1.25</v>
-      </c>
-      <c r="AA30">
-        <v>2.97</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
+      <c r="Y35">
+        <v>1.88</v>
+      </c>
+      <c r="Z35">
+        <v>1.12</v>
+      </c>
+      <c r="AA35">
+        <v>3</v>
+      </c>
+      <c r="AB35">
+        <v>1.07</v>
+      </c>
+      <c r="AC35">
+        <v>13</v>
+      </c>
+      <c r="AD35">
+        <v>9</v>
+      </c>
+      <c r="AE35">
+        <v>1.24</v>
+      </c>
+      <c r="AF35">
+        <v>1.37</v>
+      </c>
+      <c r="AG35">
+        <v>1.73</v>
+      </c>
+      <c r="AH35">
+        <v>2.17</v>
+      </c>
+      <c r="AI35">
+        <v>2.85</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-07-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="149">
   <si>
     <t>League</t>
   </si>
@@ -136,27 +136,27 @@
     <t>Estonia Meistriliiga</t>
   </si>
   <si>
+    <t>Sweden Superettan</t>
+  </si>
+  <si>
     <t>Sweden Allsvenskan</t>
   </si>
   <si>
-    <t>Sweden Superettan</t>
-  </si>
-  <si>
     <t>Denmark Superliga</t>
   </si>
   <si>
     <t>Serbia SuperLiga</t>
   </si>
   <si>
+    <t>Argentina Prim B Nacional</t>
+  </si>
+  <si>
     <t>Hungary NB I</t>
   </si>
   <si>
     <t>Peru Primera División</t>
   </si>
   <si>
-    <t>Argentina Prim B Nacional</t>
-  </si>
-  <si>
     <t>Bulgaria First League</t>
   </si>
   <si>
@@ -166,21 +166,21 @@
     <t>Iceland Úrvalsdeild</t>
   </si>
   <si>
+    <t>Colombia Categoria Primera B</t>
+  </si>
+  <si>
     <t>Colombia Categoria Primera A</t>
   </si>
   <si>
-    <t>Colombia Categoria Primera B</t>
-  </si>
-  <si>
     <t>Chile Primera B</t>
   </si>
   <si>
+    <t>Brazil Serie C</t>
+  </si>
+  <si>
     <t>Brazil Serie D</t>
   </si>
   <si>
-    <t>Brazil Serie C</t>
-  </si>
-  <si>
     <t>00:05:00</t>
   </si>
   <si>
@@ -235,6 +235,9 @@
     <t>20:30:00</t>
   </si>
   <si>
+    <t>21:00:00</t>
+  </si>
+  <si>
     <t>21:10:00</t>
   </si>
   <si>
@@ -268,22 +271,25 @@
     <t>Kuressaare</t>
   </si>
   <si>
+    <t>Örebro</t>
+  </si>
+  <si>
+    <t>Utsikten</t>
+  </si>
+  <si>
+    <t>Malmö FF</t>
+  </si>
+  <si>
     <t>Sirius</t>
   </si>
   <si>
-    <t>Örebro</t>
-  </si>
-  <si>
-    <t>Utsikten</t>
-  </si>
-  <si>
     <t>AGF</t>
   </si>
   <si>
     <t>Mladost Lučani</t>
   </si>
   <si>
-    <t>Malmö FF</t>
+    <t>Defensores de Belgrano</t>
   </si>
   <si>
     <t>Debrecen</t>
@@ -292,9 +298,6 @@
     <t>Sport Boys</t>
   </si>
   <si>
-    <t>Defensores de Belgrano</t>
-  </si>
-  <si>
     <t>Lokomotiv Plovdiv</t>
   </si>
   <si>
@@ -313,30 +316,33 @@
     <t>Sport Huancayo</t>
   </si>
   <si>
+    <t>Cúcuta Deportivo</t>
+  </si>
+  <si>
     <t>Envigado</t>
   </si>
   <si>
-    <t>Cúcuta Deportivo</t>
-  </si>
-  <si>
     <t>Univ. Concepción</t>
   </si>
   <si>
+    <t>Brusque</t>
+  </si>
+  <si>
+    <t>Aparecidense</t>
+  </si>
+  <si>
     <t>Águia de Marabá</t>
   </si>
   <si>
-    <t>Brusque</t>
-  </si>
-  <si>
-    <t>Aparecidense</t>
-  </si>
-  <si>
     <t>Boyacá Chicó</t>
   </si>
   <si>
     <t>Democrata GV</t>
   </si>
   <si>
+    <t>Princesa Solimões</t>
+  </si>
+  <si>
     <t>All Boys</t>
   </si>
   <si>
@@ -370,22 +376,25 @@
     <t>Tammeka</t>
   </si>
   <si>
+    <t>GAIS</t>
+  </si>
+  <si>
+    <t>Helsingborg</t>
+  </si>
+  <si>
+    <t>Värnamo</t>
+  </si>
+  <si>
     <t>AIK</t>
   </si>
   <si>
-    <t>GAIS</t>
-  </si>
-  <si>
-    <t>Helsingborg</t>
-  </si>
-  <si>
     <t>Nordsjælland</t>
   </si>
   <si>
     <t>Radnik Surdulica</t>
   </si>
   <si>
-    <t>Värnamo</t>
+    <t>Flandria</t>
   </si>
   <si>
     <t>Mezőkövesd-Zsóry</t>
@@ -394,9 +403,6 @@
     <t>Melgar</t>
   </si>
   <si>
-    <t>Flandria</t>
-  </si>
-  <si>
     <t>Botev Vratsa</t>
   </si>
   <si>
@@ -415,28 +421,31 @@
     <t>Alianza Atlético</t>
   </si>
   <si>
+    <t>Real Soacha</t>
+  </si>
+  <si>
     <t>Unión Magdalena</t>
   </si>
   <si>
-    <t>Real Soacha</t>
-  </si>
-  <si>
     <t>Cobreloa</t>
   </si>
   <si>
+    <t>São Bernardo</t>
+  </si>
+  <si>
+    <t>Floresta</t>
+  </si>
+  <si>
     <t>Uniclinic</t>
   </si>
   <si>
-    <t>São Bernardo</t>
-  </si>
-  <si>
-    <t>Floresta</t>
-  </si>
-  <si>
     <t>La Equidad</t>
   </si>
   <si>
     <t>Anápolis</t>
+  </si>
+  <si>
+    <t>Ferroviário</t>
   </si>
   <si>
     <t>Defensores Unidos</t>
@@ -813,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:AI36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -940,10 +949,10 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G2">
         <v>2.63</v>
@@ -997,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1047,19 +1056,19 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G3">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="H3">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2.68</v>
+        <v>2.75</v>
       </c>
       <c r="J3">
         <v>1.08</v>
@@ -1101,10 +1110,10 @@
         <v>1.45</v>
       </c>
       <c r="W3">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="X3">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="Y3">
         <v>1.29</v>
@@ -1154,19 +1163,19 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G4">
         <v>2.4</v>
       </c>
       <c r="H4">
-        <v>2.93</v>
+        <v>3.25</v>
       </c>
       <c r="I4">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="J4">
         <v>1.05</v>
@@ -1208,10 +1217,10 @@
         <v>1.47</v>
       </c>
       <c r="W4">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="Y4">
         <v>1.58</v>
@@ -1261,10 +1270,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G5">
         <v>2.55</v>
@@ -1288,10 +1297,10 @@
         <v>2.48</v>
       </c>
       <c r="N5">
-        <v>2.46</v>
+        <v>2.25</v>
       </c>
       <c r="O5">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="P5">
         <v>1.47</v>
@@ -1315,10 +1324,10 @@
         <v>1.5</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Y5">
         <v>1.61</v>
@@ -1368,25 +1377,25 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G6">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="H6">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I6">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L6">
         <v>1.18</v>
@@ -1398,7 +1407,7 @@
         <v>1.65</v>
       </c>
       <c r="O6">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="P6">
         <v>1.31</v>
@@ -1475,19 +1484,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G7">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="H7">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I7">
-        <v>3.66</v>
+        <v>3.4</v>
       </c>
       <c r="J7">
         <v>1.03</v>
@@ -1502,10 +1511,10 @@
         <v>3.7</v>
       </c>
       <c r="N7">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="O7">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="P7">
         <v>1.35</v>
@@ -1529,10 +1538,10 @@
         <v>1.65</v>
       </c>
       <c r="W7">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="X7">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="Y7">
         <v>1.55</v>
@@ -1544,28 +1553,28 @@
         <v>2.84</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1579,105 +1588,105 @@
         <v>61</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G8">
-        <v>2.56</v>
+        <v>3.6</v>
       </c>
       <c r="H8">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I8">
-        <v>2.34</v>
+        <v>1.91</v>
       </c>
       <c r="J8">
         <v>1.05</v>
       </c>
       <c r="K8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L8">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="N8">
-        <v>2.13</v>
+        <v>1.98</v>
       </c>
       <c r="O8">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="P8">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="Q8">
-        <v>2.63</v>
+        <v>2.85</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S8">
         <v>1.95</v>
       </c>
       <c r="T8">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="U8">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="V8">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="W8">
-        <v>0.88</v>
+        <v>1.38</v>
       </c>
       <c r="X8">
-        <v>0.88</v>
+        <v>1.71</v>
       </c>
       <c r="Y8">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Z8">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="AA8">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="AB8">
-        <v>2.06</v>
+        <v>2.68</v>
       </c>
       <c r="AC8">
-        <v>10</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AD8">
-        <v>1.99</v>
+        <v>1.59</v>
       </c>
       <c r="AE8">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AF8">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AG8">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AH8">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="AI8">
-        <v>1.83</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>45138</v>
@@ -1689,19 +1698,19 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G9">
-        <v>3.67</v>
+        <v>1.95</v>
       </c>
       <c r="H9">
-        <v>3.39</v>
+        <v>3.3</v>
       </c>
       <c r="I9">
-        <v>1.78</v>
+        <v>3.5</v>
       </c>
       <c r="J9">
         <v>1.05</v>
@@ -1713,73 +1722,73 @@
         <v>1.3</v>
       </c>
       <c r="M9">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N9">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="O9">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="P9">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q9">
         <v>2.85</v>
       </c>
       <c r="R9">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="U9">
         <v>1.25</v>
       </c>
       <c r="V9">
-        <v>1.28</v>
+        <v>1.78</v>
       </c>
       <c r="W9">
-        <v>1.38</v>
+        <v>2.57</v>
       </c>
       <c r="X9">
-        <v>1.71</v>
+        <v>1.14</v>
       </c>
       <c r="Y9">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="Z9">
-        <v>1.9</v>
+        <v>1.39</v>
       </c>
       <c r="AA9">
-        <v>3.55</v>
+        <v>2.97</v>
       </c>
       <c r="AB9">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="AC9">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD9">
-        <v>1.59</v>
+        <v>2.38</v>
       </c>
       <c r="AE9">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AF9">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AG9">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AH9">
-        <v>1.76</v>
+        <v>2.03</v>
       </c>
       <c r="AI9">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1793,105 +1802,105 @@
         <v>61</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G10">
-        <v>1.92</v>
+        <v>1.31</v>
       </c>
       <c r="H10">
-        <v>3.24</v>
+        <v>5.5</v>
       </c>
       <c r="I10">
-        <v>3.34</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="J10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K10">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L10">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="M10">
+        <v>4.4</v>
+      </c>
+      <c r="N10">
+        <v>1.52</v>
+      </c>
+      <c r="O10">
+        <v>2.43</v>
+      </c>
+      <c r="P10">
+        <v>1.29</v>
+      </c>
+      <c r="Q10">
         <v>3.5</v>
       </c>
-      <c r="N10">
-        <v>1.74</v>
-      </c>
-      <c r="O10">
-        <v>1.86</v>
-      </c>
-      <c r="P10">
-        <v>1.37</v>
-      </c>
-      <c r="Q10">
-        <v>2.85</v>
-      </c>
       <c r="R10">
+        <v>1.95</v>
+      </c>
+      <c r="S10">
+        <v>1.8</v>
+      </c>
+      <c r="T10">
+        <v>1.06</v>
+      </c>
+      <c r="U10">
+        <v>1.15</v>
+      </c>
+      <c r="V10">
+        <v>3.46</v>
+      </c>
+      <c r="W10">
+        <v>2.38</v>
+      </c>
+      <c r="X10">
+        <v>1.25</v>
+      </c>
+      <c r="Y10">
+        <v>2.16</v>
+      </c>
+      <c r="Z10">
+        <v>1.59</v>
+      </c>
+      <c r="AA10">
+        <v>3.75</v>
+      </c>
+      <c r="AB10">
+        <v>1.19</v>
+      </c>
+      <c r="AC10">
+        <v>13.7</v>
+      </c>
+      <c r="AD10">
+        <v>5.89</v>
+      </c>
+      <c r="AE10">
+        <v>1.07</v>
+      </c>
+      <c r="AF10">
+        <v>1.24</v>
+      </c>
+      <c r="AG10">
+        <v>1.44</v>
+      </c>
+      <c r="AH10">
         <v>1.75</v>
       </c>
-      <c r="S10">
-        <v>2.05</v>
-      </c>
-      <c r="T10">
-        <v>1.3</v>
-      </c>
-      <c r="U10">
-        <v>1.25</v>
-      </c>
-      <c r="V10">
-        <v>1.78</v>
-      </c>
-      <c r="W10">
-        <v>2.57</v>
-      </c>
-      <c r="X10">
-        <v>1.14</v>
-      </c>
-      <c r="Y10">
-        <v>1.58</v>
-      </c>
-      <c r="Z10">
-        <v>1.39</v>
-      </c>
-      <c r="AA10">
-        <v>2.97</v>
-      </c>
-      <c r="AB10">
-        <v>1.74</v>
-      </c>
-      <c r="AC10">
-        <v>9.1</v>
-      </c>
-      <c r="AD10">
-        <v>2.38</v>
-      </c>
-      <c r="AE10">
-        <v>1.23</v>
-      </c>
-      <c r="AF10">
-        <v>1.33</v>
-      </c>
-      <c r="AG10">
-        <v>1.67</v>
-      </c>
-      <c r="AH10">
-        <v>2.03</v>
-      </c>
       <c r="AI10">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2">
         <v>45138</v>
@@ -1900,105 +1909,105 @@
         <v>61</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G11">
-        <v>2.26</v>
+        <v>3.08</v>
       </c>
       <c r="H11">
-        <v>3.19</v>
+        <v>3.28</v>
       </c>
       <c r="I11">
-        <v>2.67</v>
+        <v>2.36</v>
       </c>
       <c r="J11">
         <v>1.05</v>
       </c>
       <c r="K11">
-        <v>12.25</v>
+        <v>8</v>
       </c>
       <c r="L11">
+        <v>1.33</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>1.98</v>
+      </c>
+      <c r="O11">
+        <v>1.77</v>
+      </c>
+      <c r="P11">
+        <v>1.44</v>
+      </c>
+      <c r="Q11">
+        <v>2.63</v>
+      </c>
+      <c r="R11">
+        <v>1.8</v>
+      </c>
+      <c r="S11">
+        <v>1.95</v>
+      </c>
+      <c r="T11">
+        <v>1.6</v>
+      </c>
+      <c r="U11">
+        <v>1.35</v>
+      </c>
+      <c r="V11">
+        <v>1.25</v>
+      </c>
+      <c r="W11">
+        <v>0.88</v>
+      </c>
+      <c r="X11">
+        <v>0.88</v>
+      </c>
+      <c r="Y11">
+        <v>1.63</v>
+      </c>
+      <c r="Z11">
+        <v>1.25</v>
+      </c>
+      <c r="AA11">
+        <v>2.88</v>
+      </c>
+      <c r="AB11">
+        <v>2.06</v>
+      </c>
+      <c r="AC11">
+        <v>10</v>
+      </c>
+      <c r="AD11">
+        <v>1.99</v>
+      </c>
+      <c r="AE11">
+        <v>1.1</v>
+      </c>
+      <c r="AF11">
+        <v>1.17</v>
+      </c>
+      <c r="AG11">
         <v>1.28</v>
       </c>
-      <c r="M11">
-        <v>3.75</v>
-      </c>
-      <c r="N11">
-        <v>1.79</v>
-      </c>
-      <c r="O11">
-        <v>1.81</v>
-      </c>
-      <c r="P11">
-        <v>1.36</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
-      </c>
-      <c r="R11">
-        <v>1.7</v>
-      </c>
-      <c r="S11">
-        <v>2.05</v>
-      </c>
-      <c r="T11">
-        <v>1.45</v>
-      </c>
-      <c r="U11">
-        <v>1.32</v>
-      </c>
-      <c r="V11">
-        <v>1.52</v>
-      </c>
-      <c r="W11">
-        <v>3</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>1.62</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>1.62</v>
-      </c>
-      <c r="AB11">
-        <v>1.89</v>
-      </c>
-      <c r="AC11">
-        <v>8.5</v>
-      </c>
-      <c r="AD11">
-        <v>2.31</v>
-      </c>
-      <c r="AE11">
-        <v>1.46</v>
-      </c>
-      <c r="AF11">
+      <c r="AH11">
+        <v>1.49</v>
+      </c>
+      <c r="AI11">
         <v>1.83</v>
-      </c>
-      <c r="AG11">
-        <v>2.45</v>
-      </c>
-      <c r="AH11">
-        <v>3.5</v>
-      </c>
-      <c r="AI11">
-        <v>4.15</v>
       </c>
     </row>
     <row r="12" spans="1:35">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2">
         <v>45138</v>
@@ -2007,105 +2016,105 @@
         <v>61</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G12">
-        <v>2.12</v>
+        <v>2.72</v>
       </c>
       <c r="H12">
-        <v>3.32</v>
+        <v>3.55</v>
       </c>
       <c r="I12">
-        <v>3.37</v>
+        <v>2.84</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N12">
-        <v>2.09</v>
+        <v>1.86</v>
       </c>
       <c r="O12">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>4.15</v>
       </c>
     </row>
     <row r="13" spans="1:35">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2">
         <v>45138</v>
@@ -2114,100 +2123,100 @@
         <v>61</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G13">
-        <v>1.27</v>
+        <v>2.23</v>
       </c>
       <c r="H13">
-        <v>4.82</v>
+        <v>3.05</v>
       </c>
       <c r="I13">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="J13">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="O13">
-        <v>2.29</v>
+        <v>1.6</v>
       </c>
       <c r="P13">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>3.46</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>5.89</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>2.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2221,100 +2230,100 @@
         <v>62</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G14">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="H14">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I14">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="J14">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L14">
+        <v>1.52</v>
+      </c>
+      <c r="M14">
+        <v>2.45</v>
+      </c>
+      <c r="N14">
+        <v>2.59</v>
+      </c>
+      <c r="O14">
+        <v>1.44</v>
+      </c>
+      <c r="P14">
+        <v>1.57</v>
+      </c>
+      <c r="Q14">
+        <v>2.38</v>
+      </c>
+      <c r="R14">
+        <v>2.35</v>
+      </c>
+      <c r="S14">
+        <v>1.55</v>
+      </c>
+      <c r="T14">
+        <v>1.12</v>
+      </c>
+      <c r="U14">
         <v>1.25</v>
       </c>
-      <c r="M14">
-        <v>3.75</v>
-      </c>
-      <c r="N14">
-        <v>1.93</v>
-      </c>
-      <c r="O14">
-        <v>1.93</v>
-      </c>
-      <c r="P14">
-        <v>1.33</v>
-      </c>
-      <c r="Q14">
-        <v>3.25</v>
-      </c>
-      <c r="R14">
-        <v>1.67</v>
-      </c>
-      <c r="S14">
-        <v>2.1</v>
-      </c>
-      <c r="T14">
-        <v>1.2</v>
-      </c>
-      <c r="U14">
-        <v>1.22</v>
-      </c>
       <c r="V14">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AB14">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AC14">
-        <v>7.5</v>
+        <v>9.1</v>
       </c>
       <c r="AD14">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="AE14">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AF14">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AG14">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AH14">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="AI14">
-        <v>3.4</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2328,100 +2337,100 @@
         <v>62</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G15">
-        <v>3.32</v>
+        <v>1.9</v>
       </c>
       <c r="H15">
-        <v>3.16</v>
+        <v>3.4</v>
       </c>
       <c r="I15">
-        <v>1.84</v>
+        <v>3.35</v>
       </c>
       <c r="J15">
         <v>1.05</v>
       </c>
       <c r="K15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L15">
+        <v>1.25</v>
+      </c>
+      <c r="M15">
+        <v>3.75</v>
+      </c>
+      <c r="N15">
+        <v>1.9</v>
+      </c>
+      <c r="O15">
+        <v>1.9</v>
+      </c>
+      <c r="P15">
         <v>1.33</v>
       </c>
-      <c r="M15">
-        <v>3.3</v>
-      </c>
-      <c r="N15">
-        <v>1.98</v>
-      </c>
-      <c r="O15">
-        <v>1.88</v>
-      </c>
-      <c r="P15">
-        <v>1.42</v>
-      </c>
       <c r="Q15">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="R15">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="S15">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="T15">
-        <v>1.71</v>
+        <v>1.2</v>
       </c>
       <c r="U15">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="V15">
-        <v>1.25</v>
+        <v>1.87</v>
       </c>
       <c r="W15">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG15">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2435,100 +2444,100 @@
         <v>62</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G16">
-        <v>1.69</v>
+        <v>3.3</v>
       </c>
       <c r="H16">
-        <v>3.27</v>
+        <v>3.3</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K16">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="L16">
-        <v>1.51</v>
+        <v>1.33</v>
       </c>
       <c r="M16">
-        <v>2.41</v>
+        <v>3.3</v>
       </c>
       <c r="N16">
-        <v>2.55</v>
+        <v>1.98</v>
       </c>
       <c r="O16">
+        <v>1.88</v>
+      </c>
+      <c r="P16">
+        <v>1.42</v>
+      </c>
+      <c r="Q16">
+        <v>2.9</v>
+      </c>
+      <c r="R16">
+        <v>1.83</v>
+      </c>
+      <c r="S16">
+        <v>1.93</v>
+      </c>
+      <c r="T16">
+        <v>1.71</v>
+      </c>
+      <c r="U16">
+        <v>1.29</v>
+      </c>
+      <c r="V16">
+        <v>1.25</v>
+      </c>
+      <c r="W16">
         <v>1.45</v>
       </c>
-      <c r="P16">
-        <v>1.57</v>
-      </c>
-      <c r="Q16">
-        <v>2.38</v>
-      </c>
-      <c r="R16">
-        <v>2.35</v>
-      </c>
-      <c r="S16">
-        <v>1.55</v>
-      </c>
-      <c r="T16">
-        <v>1.12</v>
-      </c>
-      <c r="U16">
-        <v>1.25</v>
-      </c>
-      <c r="V16">
+      <c r="X16">
+        <v>1.09</v>
+      </c>
+      <c r="Y16">
+        <v>1.42</v>
+      </c>
+      <c r="Z16">
+        <v>1.41</v>
+      </c>
+      <c r="AA16">
+        <v>2.83</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
         <v>2</v>
       </c>
-      <c r="W16">
-        <v>1.75</v>
-      </c>
-      <c r="X16">
-        <v>0.42</v>
-      </c>
-      <c r="Y16">
-        <v>1.28</v>
-      </c>
-      <c r="Z16">
-        <v>1.07</v>
-      </c>
-      <c r="AA16">
-        <v>2.35</v>
-      </c>
-      <c r="AB16">
-        <v>1.5</v>
-      </c>
-      <c r="AC16">
-        <v>9.1</v>
-      </c>
-      <c r="AD16">
-        <v>3.24</v>
-      </c>
-      <c r="AE16">
-        <v>1.35</v>
-      </c>
-      <c r="AF16">
-        <v>1.71</v>
-      </c>
-      <c r="AG16">
-        <v>2.13</v>
-      </c>
       <c r="AH16">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>3.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2545,19 +2554,19 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G17">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H17">
-        <v>4.21</v>
+        <v>3.9</v>
       </c>
       <c r="I17">
-        <v>7.42</v>
+        <v>6.4</v>
       </c>
       <c r="J17">
         <v>1.02</v>
@@ -2572,10 +2581,10 @@
         <v>3.14</v>
       </c>
       <c r="N17">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="O17">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="P17">
         <v>1.4</v>
@@ -2652,19 +2661,19 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G18">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="H18">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="J18">
         <v>1.08</v>
@@ -2679,10 +2688,10 @@
         <v>2.75</v>
       </c>
       <c r="N18">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="O18">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P18">
         <v>1.5</v>
@@ -2759,19 +2768,19 @@
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G19">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="H19">
-        <v>3.31</v>
+        <v>3.6</v>
       </c>
       <c r="I19">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="J19">
         <v>1.03</v>
@@ -2866,19 +2875,19 @@
         <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G20">
-        <v>3.14</v>
+        <v>3.8</v>
       </c>
       <c r="H20">
-        <v>3.43</v>
+        <v>3.6</v>
       </c>
       <c r="I20">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="J20">
         <v>1.04</v>
@@ -2893,10 +2902,10 @@
         <v>4</v>
       </c>
       <c r="N20">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="O20">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="P20">
         <v>1.33</v>
@@ -2973,19 +2982,19 @@
         <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G21">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="H21">
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="I21">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="J21">
         <v>1.03</v>
@@ -3000,10 +3009,10 @@
         <v>4.75</v>
       </c>
       <c r="N21">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="O21">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="P21">
         <v>1.27</v>
@@ -3068,7 +3077,7 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2">
         <v>45138</v>
@@ -3080,19 +3089,19 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G22">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="H22">
-        <v>3.94</v>
+        <v>4.5</v>
       </c>
       <c r="I22">
-        <v>7.35</v>
+        <v>7</v>
       </c>
       <c r="J22">
         <v>1.02</v>
@@ -3107,10 +3116,10 @@
         <v>4.2</v>
       </c>
       <c r="N22">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="O22">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="P22">
         <v>1.33</v>
@@ -3184,100 +3193,100 @@
         <v>68</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="H23">
-        <v>3.08</v>
+        <v>4.1</v>
       </c>
       <c r="I23">
-        <v>3.53</v>
+        <v>5.75</v>
       </c>
       <c r="J23">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>2.4</v>
+        <v>1.94</v>
       </c>
       <c r="O23">
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="P23">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>1.18</v>
+        <v>2.09</v>
       </c>
       <c r="X23">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="Z23">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>2.33</v>
+        <v>1.58</v>
       </c>
       <c r="AB23">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>2.77</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -3291,100 +3300,100 @@
         <v>68</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G24">
+        <v>2.1</v>
+      </c>
+      <c r="H24">
+        <v>3.25</v>
+      </c>
+      <c r="I24">
+        <v>3.6</v>
+      </c>
+      <c r="J24">
+        <v>1.09</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="L24">
+        <v>1.45</v>
+      </c>
+      <c r="M24">
+        <v>2.75</v>
+      </c>
+      <c r="N24">
+        <v>2.41</v>
+      </c>
+      <c r="O24">
+        <v>1.5</v>
+      </c>
+      <c r="P24">
+        <v>1.48</v>
+      </c>
+      <c r="Q24">
+        <v>2.48</v>
+      </c>
+      <c r="R24">
+        <v>2.02</v>
+      </c>
+      <c r="S24">
+        <v>1.75</v>
+      </c>
+      <c r="T24">
+        <v>1.28</v>
+      </c>
+      <c r="U24">
         <v>1.38</v>
       </c>
-      <c r="H24">
-        <v>3.49</v>
-      </c>
-      <c r="I24">
-        <v>5.53</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>1.86</v>
-      </c>
-      <c r="O24">
-        <v>1.66</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W24">
-        <v>2.09</v>
+        <v>1.18</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="Y24">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AA24">
-        <v>1.58</v>
+        <v>2.33</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3401,19 +3410,19 @@
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G25">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="H25">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I25">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="J25">
         <v>1.07</v>
@@ -3428,10 +3437,10 @@
         <v>2.87</v>
       </c>
       <c r="N25">
-        <v>2.33</v>
+        <v>2.05</v>
       </c>
       <c r="O25">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="P25">
         <v>1.45</v>
@@ -3482,16 +3491,16 @@
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3505,105 +3514,105 @@
         <v>70</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G26">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="H26">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I26">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="R26">
+        <v>2.12</v>
+      </c>
+      <c r="S26">
+        <v>1.69</v>
+      </c>
+      <c r="T26">
+        <v>1.14</v>
+      </c>
+      <c r="U26">
+        <v>1.27</v>
+      </c>
+      <c r="V26">
+        <v>1.99</v>
+      </c>
+      <c r="W26">
+        <v>1.86</v>
+      </c>
+      <c r="X26">
+        <v>1.29</v>
+      </c>
+      <c r="Y26">
+        <v>1.72</v>
+      </c>
+      <c r="Z26">
+        <v>1.69</v>
+      </c>
+      <c r="AA26">
+        <v>3.41</v>
+      </c>
+      <c r="AB26">
+        <v>1.8</v>
+      </c>
+      <c r="AC26">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD26">
+        <v>2.23</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>1.33</v>
+      </c>
+      <c r="AG26">
+        <v>1.63</v>
+      </c>
+      <c r="AH26">
         <v>2</v>
       </c>
-      <c r="S26">
-        <v>1.77</v>
-      </c>
-      <c r="T26">
-        <v>1.22</v>
-      </c>
-      <c r="U26">
-        <v>1.34</v>
-      </c>
-      <c r="V26">
-        <v>1.74</v>
-      </c>
-      <c r="W26">
-        <v>1.71</v>
-      </c>
-      <c r="X26">
-        <v>1.64</v>
-      </c>
-      <c r="Y26">
-        <v>1.53</v>
-      </c>
-      <c r="Z26">
-        <v>1.48</v>
-      </c>
-      <c r="AA26">
-        <v>3.01</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
       <c r="AI26">
-        <v>0</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="27" spans="1:35">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2">
         <v>45138</v>
@@ -3615,97 +3624,97 @@
         <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G27">
-        <v>1.54</v>
+        <v>2.08</v>
       </c>
       <c r="H27">
-        <v>3.09</v>
+        <v>3.05</v>
       </c>
       <c r="I27">
-        <v>5.37</v>
+        <v>3.2</v>
       </c>
       <c r="J27">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K27">
-        <v>7.1</v>
+        <v>7.75</v>
       </c>
       <c r="L27">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M27">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="N27">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O27">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="P27">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Q27">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R27">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S27">
+        <v>1.68</v>
+      </c>
+      <c r="T27">
+        <v>1.25</v>
+      </c>
+      <c r="U27">
+        <v>1.3</v>
+      </c>
+      <c r="V27">
+        <v>1.72</v>
+      </c>
+      <c r="W27">
+        <v>1.29</v>
+      </c>
+      <c r="X27">
+        <v>0.71</v>
+      </c>
+      <c r="Y27">
+        <v>1.6</v>
+      </c>
+      <c r="Z27">
+        <v>1.39</v>
+      </c>
+      <c r="AA27">
+        <v>2.99</v>
+      </c>
+      <c r="AB27">
         <v>1.69</v>
       </c>
-      <c r="T27">
-        <v>1.14</v>
-      </c>
-      <c r="U27">
-        <v>1.27</v>
-      </c>
-      <c r="V27">
-        <v>1.99</v>
-      </c>
-      <c r="W27">
-        <v>1.86</v>
-      </c>
-      <c r="X27">
-        <v>1.29</v>
-      </c>
-      <c r="Y27">
-        <v>1.72</v>
-      </c>
-      <c r="Z27">
-        <v>1.69</v>
-      </c>
-      <c r="AA27">
-        <v>3.41</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
       <c r="AC27">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3719,76 +3728,76 @@
         <v>70</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G28">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="H28">
-        <v>2.87</v>
+        <v>3.25</v>
       </c>
       <c r="I28">
-        <v>3.19</v>
+        <v>4.33</v>
       </c>
       <c r="J28">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K28">
-        <v>7.75</v>
+        <v>8.25</v>
       </c>
       <c r="L28">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="M28">
-        <v>2.58</v>
+        <v>2.71</v>
       </c>
       <c r="N28">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="O28">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="P28">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q28">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="R28">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="S28">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="T28">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="U28">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V28">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="X28">
-        <v>0.71</v>
+        <v>1.64</v>
       </c>
       <c r="Y28">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="Z28">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="AA28">
-        <v>2.99</v>
+        <v>3.01</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3803,13 +3812,13 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AG28">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AH28">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -3817,7 +3826,7 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2">
         <v>45138</v>
@@ -3829,19 +3838,19 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G29">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H29">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="I29">
-        <v>3.39</v>
+        <v>3.75</v>
       </c>
       <c r="J29">
         <v>1.09</v>
@@ -3856,7 +3865,7 @@
         <v>2.7</v>
       </c>
       <c r="N29">
-        <v>2.4</v>
+        <v>2.41</v>
       </c>
       <c r="O29">
         <v>1.5</v>
@@ -3924,7 +3933,7 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2">
         <v>45138</v>
@@ -3936,58 +3945,58 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G30">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="H30">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="I30">
-        <v>4.48</v>
+        <v>4.8</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="N30">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="W30">
         <v>1.79</v>
@@ -4031,7 +4040,7 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B31" s="2">
         <v>45138</v>
@@ -4040,97 +4049,97 @@
         <v>73</v>
       </c>
       <c r="D31">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G31">
-        <v>2.26</v>
+        <v>2.95</v>
       </c>
       <c r="H31">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="I31">
-        <v>2.85</v>
+        <v>2.31</v>
       </c>
       <c r="J31">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="K31">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="L31">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="M31">
-        <v>2.21</v>
+        <v>2.95</v>
       </c>
       <c r="N31">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="O31">
+        <v>1.65</v>
+      </c>
+      <c r="P31">
+        <v>1.43</v>
+      </c>
+      <c r="Q31">
+        <v>2.55</v>
+      </c>
+      <c r="R31">
+        <v>1.84</v>
+      </c>
+      <c r="S31">
+        <v>1.92</v>
+      </c>
+      <c r="T31">
+        <v>1.47</v>
+      </c>
+      <c r="U31">
+        <v>1.38</v>
+      </c>
+      <c r="V31">
         <v>1.36</v>
       </c>
-      <c r="P31">
-        <v>1.67</v>
-      </c>
-      <c r="Q31">
-        <v>2.1</v>
-      </c>
-      <c r="R31">
-        <v>2.38</v>
-      </c>
-      <c r="S31">
-        <v>1.53</v>
-      </c>
-      <c r="T31">
-        <v>1.3</v>
-      </c>
-      <c r="U31">
-        <v>1.32</v>
-      </c>
-      <c r="V31">
-        <v>1.58</v>
-      </c>
       <c r="W31">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="X31">
-        <v>0.83</v>
+        <v>2.57</v>
       </c>
       <c r="Y31">
+        <v>1.72</v>
+      </c>
+      <c r="Z31">
         <v>1.25</v>
       </c>
-      <c r="Z31">
-        <v>1.04</v>
-      </c>
       <c r="AA31">
-        <v>2.29</v>
+        <v>2.97</v>
       </c>
       <c r="AB31">
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>2.38</v>
+        <v>1.93</v>
       </c>
       <c r="AH31">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -4138,7 +4147,7 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2">
         <v>45138</v>
@@ -4147,105 +4156,105 @@
         <v>74</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F32" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G32">
-        <v>1.92</v>
+        <v>2.38</v>
       </c>
       <c r="H32">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I32">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="K32">
-        <v>9.5</v>
+        <v>6.2</v>
       </c>
       <c r="L32">
+        <v>1.58</v>
+      </c>
+      <c r="M32">
+        <v>2.28</v>
+      </c>
+      <c r="N32">
+        <v>2.73</v>
+      </c>
+      <c r="O32">
+        <v>1.4</v>
+      </c>
+      <c r="P32">
+        <v>1.67</v>
+      </c>
+      <c r="Q32">
+        <v>2.1</v>
+      </c>
+      <c r="R32">
+        <v>2.38</v>
+      </c>
+      <c r="S32">
+        <v>1.53</v>
+      </c>
+      <c r="T32">
+        <v>1.3</v>
+      </c>
+      <c r="U32">
         <v>1.32</v>
       </c>
-      <c r="M32">
-        <v>2.92</v>
-      </c>
-      <c r="N32">
-        <v>2.05</v>
-      </c>
-      <c r="O32">
-        <v>1.69</v>
-      </c>
-      <c r="P32">
-        <v>1.45</v>
-      </c>
-      <c r="Q32">
-        <v>2.55</v>
-      </c>
-      <c r="R32">
+      <c r="V32">
+        <v>1.58</v>
+      </c>
+      <c r="W32">
+        <v>1.42</v>
+      </c>
+      <c r="X32">
+        <v>0.83</v>
+      </c>
+      <c r="Y32">
+        <v>1.25</v>
+      </c>
+      <c r="Z32">
+        <v>1.04</v>
+      </c>
+      <c r="AA32">
+        <v>2.29</v>
+      </c>
+      <c r="AB32">
+        <v>1.76</v>
+      </c>
+      <c r="AC32">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AD32">
+        <v>2.47</v>
+      </c>
+      <c r="AE32">
+        <v>1.51</v>
+      </c>
+      <c r="AF32">
         <v>1.88</v>
       </c>
-      <c r="S32">
-        <v>1.82</v>
-      </c>
-      <c r="T32">
-        <v>1.24</v>
-      </c>
-      <c r="U32">
-        <v>1.28</v>
-      </c>
-      <c r="V32">
-        <v>1.65</v>
-      </c>
-      <c r="W32">
-        <v>2</v>
-      </c>
-      <c r="X32">
-        <v>1.11</v>
-      </c>
-      <c r="Y32">
-        <v>1.77</v>
-      </c>
-      <c r="Z32">
-        <v>1.31</v>
-      </c>
-      <c r="AA32">
-        <v>3.08</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
       <c r="AG32">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="33" spans="1:35">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B33" s="2">
         <v>45138</v>
@@ -4254,76 +4263,76 @@
         <v>75</v>
       </c>
       <c r="D33">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33">
+        <v>1.91</v>
+      </c>
+      <c r="H33">
+        <v>3.1</v>
+      </c>
+      <c r="I33">
+        <v>3.75</v>
+      </c>
+      <c r="J33">
+        <v>1.06</v>
+      </c>
+      <c r="K33">
+        <v>9.5</v>
+      </c>
+      <c r="L33">
+        <v>1.32</v>
+      </c>
+      <c r="M33">
+        <v>2.92</v>
+      </c>
+      <c r="N33">
+        <v>2.01</v>
+      </c>
+      <c r="O33">
+        <v>1.68</v>
+      </c>
+      <c r="P33">
+        <v>1.45</v>
+      </c>
+      <c r="Q33">
+        <v>2.55</v>
+      </c>
+      <c r="R33">
+        <v>1.88</v>
+      </c>
+      <c r="S33">
+        <v>1.82</v>
+      </c>
+      <c r="T33">
+        <v>1.24</v>
+      </c>
+      <c r="U33">
+        <v>1.28</v>
+      </c>
+      <c r="V33">
+        <v>1.65</v>
+      </c>
+      <c r="W33">
         <v>2</v>
       </c>
-      <c r="E33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
       <c r="X33">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AB33">
         <v>0</v>
@@ -4338,21 +4347,21 @@
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="34" spans="1:35">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2">
         <v>45138</v>
@@ -4361,105 +4370,105 @@
         <v>76</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F34" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G34">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>3.31</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>3.71</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>3.58</v>
+        <v>0</v>
       </c>
       <c r="AE34">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AI34">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2">
         <v>45138</v>
@@ -4468,99 +4477,206 @@
         <v>77</v>
       </c>
       <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35">
+        <v>1.75</v>
+      </c>
+      <c r="H35">
+        <v>3.5</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>1.06</v>
+      </c>
+      <c r="K35">
+        <v>7.2</v>
+      </c>
+      <c r="L35">
+        <v>1.3</v>
+      </c>
+      <c r="M35">
+        <v>3.2</v>
+      </c>
+      <c r="N35">
+        <v>2.03</v>
+      </c>
+      <c r="O35">
+        <v>1.7</v>
+      </c>
+      <c r="P35">
+        <v>1.44</v>
+      </c>
+      <c r="Q35">
+        <v>2.63</v>
+      </c>
+      <c r="R35">
+        <v>2</v>
+      </c>
+      <c r="S35">
+        <v>1.73</v>
+      </c>
+      <c r="T35">
+        <v>1.15</v>
+      </c>
+      <c r="U35">
+        <v>1.28</v>
+      </c>
+      <c r="V35">
+        <v>1.8</v>
+      </c>
+      <c r="W35">
+        <v>1.55</v>
+      </c>
+      <c r="X35">
+        <v>0.91</v>
+      </c>
+      <c r="Y35">
+        <v>1.64</v>
+      </c>
+      <c r="Z35">
+        <v>1.26</v>
+      </c>
+      <c r="AA35">
+        <v>2.9</v>
+      </c>
+      <c r="AB35">
+        <v>1.41</v>
+      </c>
+      <c r="AC35">
+        <v>9</v>
+      </c>
+      <c r="AD35">
+        <v>3.58</v>
+      </c>
+      <c r="AE35">
+        <v>1.27</v>
+      </c>
+      <c r="AF35">
+        <v>1.5</v>
+      </c>
+      <c r="AG35">
+        <v>2</v>
+      </c>
+      <c r="AH35">
+        <v>2.5</v>
+      </c>
+      <c r="AI35">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36">
         <v>6</v>
       </c>
-      <c r="E35" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" t="s">
-        <v>145</v>
-      </c>
-      <c r="G35">
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G36">
+        <v>1.33</v>
+      </c>
+      <c r="H36">
+        <v>4.5</v>
+      </c>
+      <c r="I36">
+        <v>7.5</v>
+      </c>
+      <c r="J36">
+        <v>1.02</v>
+      </c>
+      <c r="K36">
+        <v>15</v>
+      </c>
+      <c r="L36">
+        <v>1.2</v>
+      </c>
+      <c r="M36">
+        <v>4.33</v>
+      </c>
+      <c r="N36">
+        <v>1.6</v>
+      </c>
+      <c r="O36">
+        <v>2.19</v>
+      </c>
+      <c r="P36">
         <v>1.3</v>
       </c>
-      <c r="H35">
-        <v>3.96</v>
-      </c>
-      <c r="I35">
-        <v>7.36</v>
-      </c>
-      <c r="J35">
+      <c r="Q36">
+        <v>3.4</v>
+      </c>
+      <c r="R36">
+        <v>2.25</v>
+      </c>
+      <c r="S36">
+        <v>1.62</v>
+      </c>
+      <c r="T36">
         <v>1.02</v>
       </c>
-      <c r="K35">
-        <v>15</v>
-      </c>
-      <c r="L35">
-        <v>1.2</v>
-      </c>
-      <c r="M35">
-        <v>4.33</v>
-      </c>
-      <c r="N35">
-        <v>1.65</v>
-      </c>
-      <c r="O35">
-        <v>2.1</v>
-      </c>
-      <c r="P35">
-        <v>1.3</v>
-      </c>
-      <c r="Q35">
-        <v>3.4</v>
-      </c>
-      <c r="R35">
-        <v>2.25</v>
-      </c>
-      <c r="S35">
-        <v>1.62</v>
-      </c>
-      <c r="T35">
-        <v>1.02</v>
-      </c>
-      <c r="U35">
+      <c r="U36">
         <v>1.1</v>
       </c>
-      <c r="V35">
+      <c r="V36">
         <v>4</v>
       </c>
-      <c r="W35">
+      <c r="W36">
         <v>2.73</v>
       </c>
-      <c r="X35">
+      <c r="X36">
         <v>1.36</v>
       </c>
-      <c r="Y35">
+      <c r="Y36">
         <v>1.88</v>
       </c>
-      <c r="Z35">
+      <c r="Z36">
         <v>1.12</v>
       </c>
-      <c r="AA35">
+      <c r="AA36">
         <v>3</v>
       </c>
-      <c r="AB35">
+      <c r="AB36">
         <v>1.07</v>
       </c>
-      <c r="AC35">
+      <c r="AC36">
         <v>13</v>
       </c>
-      <c r="AD35">
+      <c r="AD36">
         <v>9</v>
       </c>
-      <c r="AE35">
+      <c r="AE36">
         <v>1.24</v>
       </c>
-      <c r="AF35">
+      <c r="AF36">
         <v>1.37</v>
       </c>
-      <c r="AG35">
+      <c r="AG36">
         <v>1.73</v>
       </c>
-      <c r="AH35">
+      <c r="AH36">
         <v>2.17</v>
       </c>
-      <c r="AI35">
+      <c r="AI36">
         <v>2.85</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-07-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-07-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -238,7 +238,7 @@
     <t>21:00:00</t>
   </si>
   <si>
-    <t>21:10:00</t>
+    <t>21:20:00</t>
   </si>
   <si>
     <t>21:30:00</t>
@@ -1645,10 +1645,10 @@
         <v>1.28</v>
       </c>
       <c r="W8">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X8">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="Y8">
         <v>1.65</v>
@@ -1752,10 +1752,10 @@
         <v>1.78</v>
       </c>
       <c r="W9">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="X9">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Y9">
         <v>1.58</v>
@@ -1859,10 +1859,10 @@
         <v>3.46</v>
       </c>
       <c r="W10">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="X10">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="Y10">
         <v>2.16</v>
@@ -1966,10 +1966,10 @@
         <v>1.25</v>
       </c>
       <c r="W11">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="X11">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="Y11">
         <v>1.63</v>
@@ -2073,10 +2073,10 @@
         <v>1.52</v>
       </c>
       <c r="W12">
+        <v>1.5</v>
+      </c>
+      <c r="X12">
         <v>3</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
       </c>
       <c r="Y12">
         <v>1.62</v>
@@ -2180,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>2</v>
       </c>
       <c r="W14">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="X14">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="Y14">
         <v>1.28</v>
@@ -2394,7 +2394,7 @@
         <v>1.87</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X15">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>1.25</v>
       </c>
       <c r="W16">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="X16">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="Y16">
         <v>1.42</v>
@@ -2534,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AI16">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>2.8</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y18">
         <v>1.44</v>
@@ -2822,10 +2822,10 @@
         <v>1.36</v>
       </c>
       <c r="W19">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="X19">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="Y19">
         <v>1.76</v>
@@ -2929,10 +2929,10 @@
         <v>1.22</v>
       </c>
       <c r="W20">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="X20">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="Y20">
         <v>1.24</v>
@@ -3036,10 +3036,10 @@
         <v>1.35</v>
       </c>
       <c r="W21">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="X21">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="Y21">
         <v>1.48</v>
@@ -3095,13 +3095,13 @@
         <v>134</v>
       </c>
       <c r="G22">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="H22">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I22">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="J22">
         <v>1.02</v>
@@ -3116,10 +3116,10 @@
         <v>4.2</v>
       </c>
       <c r="N22">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O22">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="P22">
         <v>1.33</v>
@@ -3143,10 +3143,10 @@
         <v>3</v>
       </c>
       <c r="W22">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X22">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="Y22">
         <v>1.98</v>
@@ -3202,13 +3202,13 @@
         <v>135</v>
       </c>
       <c r="G23">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H23">
         <v>4.1</v>
       </c>
       <c r="I23">
-        <v>5.75</v>
+        <v>5.4</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="X23">
         <v>0</v>
@@ -3309,13 +3309,13 @@
         <v>136</v>
       </c>
       <c r="G24">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H24">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I24">
-        <v>3.6</v>
+        <v>2.99</v>
       </c>
       <c r="J24">
         <v>1.09</v>
@@ -3330,10 +3330,10 @@
         <v>2.75</v>
       </c>
       <c r="N24">
-        <v>2.41</v>
+        <v>2.35</v>
       </c>
       <c r="O24">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P24">
         <v>1.48</v>
@@ -3357,10 +3357,10 @@
         <v>1.72</v>
       </c>
       <c r="W24">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X24">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="Y24">
         <v>1.43</v>
@@ -3416,13 +3416,13 @@
         <v>137</v>
       </c>
       <c r="G25">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="H25">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>2.59</v>
       </c>
       <c r="J25">
         <v>1.07</v>
@@ -3437,10 +3437,10 @@
         <v>2.87</v>
       </c>
       <c r="N25">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O25">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P25">
         <v>1.45</v>
@@ -3464,10 +3464,10 @@
         <v>1.45</v>
       </c>
       <c r="W25">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X25">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="Y25">
         <v>1.76</v>
@@ -3571,10 +3571,10 @@
         <v>1.99</v>
       </c>
       <c r="W26">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="X26">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Y26">
         <v>1.72</v>
@@ -3678,10 +3678,10 @@
         <v>1.72</v>
       </c>
       <c r="W27">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X27">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="Y27">
         <v>1.6</v>
@@ -3737,10 +3737,10 @@
         <v>140</v>
       </c>
       <c r="G28">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H28">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I28">
         <v>4.33</v>
@@ -3758,10 +3758,10 @@
         <v>2.71</v>
       </c>
       <c r="N28">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="P28">
         <v>1.5</v>
@@ -3770,10 +3770,10 @@
         <v>2.23</v>
       </c>
       <c r="R28">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="S28">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="T28">
         <v>1.16</v>
@@ -3785,10 +3785,10 @@
         <v>1.95</v>
       </c>
       <c r="W28">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="X28">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="Y28">
         <v>1.53</v>
@@ -3844,13 +3844,13 @@
         <v>141</v>
       </c>
       <c r="G29">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="H29">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I29">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="J29">
         <v>1.09</v>
@@ -3865,7 +3865,7 @@
         <v>2.7</v>
       </c>
       <c r="N29">
-        <v>2.41</v>
+        <v>2.4</v>
       </c>
       <c r="O29">
         <v>1.5</v>
@@ -3892,10 +3892,10 @@
         <v>1.76</v>
       </c>
       <c r="W29">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="X29">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="Y29">
         <v>1.5</v>
@@ -3951,13 +3951,13 @@
         <v>142</v>
       </c>
       <c r="G30">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H30">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I30">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="J30">
         <v>1.07</v>
@@ -3975,7 +3975,7 @@
         <v>2.2</v>
       </c>
       <c r="O30">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P30">
         <v>1.47</v>
@@ -3984,10 +3984,10 @@
         <v>2.5</v>
       </c>
       <c r="R30">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="T30">
         <v>1.23</v>
@@ -3999,10 +3999,10 @@
         <v>1.74</v>
       </c>
       <c r="W30">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="X30">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="Y30">
         <v>1.69</v>
@@ -4058,13 +4058,13 @@
         <v>143</v>
       </c>
       <c r="G31">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="H31">
         <v>3.1</v>
       </c>
       <c r="I31">
-        <v>2.31</v>
+        <v>2</v>
       </c>
       <c r="J31">
         <v>1.02</v>
@@ -4082,7 +4082,7 @@
         <v>2.05</v>
       </c>
       <c r="O31">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P31">
         <v>1.43</v>
@@ -4165,13 +4165,13 @@
         <v>144</v>
       </c>
       <c r="G32">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="H32">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J32">
         <v>1.12</v>
@@ -4186,10 +4186,10 @@
         <v>2.28</v>
       </c>
       <c r="N32">
-        <v>2.73</v>
+        <v>2.9</v>
       </c>
       <c r="O32">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P32">
         <v>1.67</v>
@@ -4213,10 +4213,10 @@
         <v>1.58</v>
       </c>
       <c r="W32">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="X32">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="Y32">
         <v>1.25</v>
@@ -4272,13 +4272,13 @@
         <v>145</v>
       </c>
       <c r="G33">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H33">
-        <v>3.1</v>
+        <v>3.32</v>
       </c>
       <c r="I33">
-        <v>3.75</v>
+        <v>3.82</v>
       </c>
       <c r="J33">
         <v>1.06</v>
@@ -4293,10 +4293,10 @@
         <v>2.92</v>
       </c>
       <c r="N33">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="O33">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="P33">
         <v>1.45</v>
@@ -4320,10 +4320,10 @@
         <v>1.65</v>
       </c>
       <c r="W33">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X33">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="Y33">
         <v>1.77</v>
@@ -4486,13 +4486,13 @@
         <v>147</v>
       </c>
       <c r="G35">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H35">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I35">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="J35">
         <v>1.06</v>
@@ -4507,7 +4507,7 @@
         <v>3.2</v>
       </c>
       <c r="N35">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O35">
         <v>1.7</v>
@@ -4593,13 +4593,13 @@
         <v>148</v>
       </c>
       <c r="G36">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="H36">
-        <v>4.5</v>
+        <v>5.56</v>
       </c>
       <c r="I36">
-        <v>7.5</v>
+        <v>9.44</v>
       </c>
       <c r="J36">
         <v>1.02</v>
@@ -4614,10 +4614,10 @@
         <v>4.33</v>
       </c>
       <c r="N36">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O36">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="P36">
         <v>1.3</v>
